--- a/Lofthus_gantt Chart_CA.xlsx
+++ b/Lofthus_gantt Chart_CA.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanDMac/Documents/github/PjojectMeth_CA_JonathanConvento_Gantt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C842F889-0FF1-A848-BCE6-3BE8BAA5D3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAC1A6-062C-8A4C-9D25-ACB10E317E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{74035F51-FD81-BA43-A70B-18B625AEE06F}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{74035F51-FD81-BA43-A70B-18B625AEE06F}"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT" sheetId="2" r:id="rId1"/>
-    <sheet name="TASKS" sheetId="3" r:id="rId2"/>
-    <sheet name="MEMBERS" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="TASKS" sheetId="3" r:id="rId3"/>
+    <sheet name="MEMBERS" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GANTT!$A$1:$AL$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -169,9 +173,6 @@
     <t>5 d</t>
   </si>
   <si>
-    <t>30 Days</t>
-  </si>
-  <si>
     <t>1 d</t>
   </si>
   <si>
@@ -196,9 +197,6 @@
     <t xml:space="preserve">Team </t>
   </si>
   <si>
-    <t>45 Days</t>
-  </si>
-  <si>
     <t>team meeting</t>
   </si>
   <si>
@@ -259,17 +257,23 @@
     <t>19 days</t>
   </si>
   <si>
-    <t>19 d</t>
-  </si>
-  <si>
-    <t>kick-off Meeting 5</t>
+    <t>15 Days</t>
+  </si>
+  <si>
+    <t>9 d</t>
+  </si>
+  <si>
+    <t>35 Days</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,8 +327,51 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -468,28 +521,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,12 +563,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -550,11 +579,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -577,11 +704,34 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -638,21 +788,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,16 +818,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -859,10 +999,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>GANTT!$D$44:$AV$44</c:f>
+              <c:f>GANTT!$D$42:$AL$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -870,73 +1010,73 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2</c:v>
@@ -948,54 +1088,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1713,13 +1823,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2045,1208 +2155,3157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4F2199-7496-4A4A-81A0-F70920E9B2D3}">
-  <dimension ref="A1:AW44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6:AV41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="48" width="5.6640625" customWidth="1"/>
-    <col min="49" max="49" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="8" customWidth="1"/>
+    <col min="4" max="38" width="4.1640625" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="1:39" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
+        <v>1</v>
+      </c>
+      <c r="E2" s="53">
+        <v>2</v>
+      </c>
+      <c r="F2" s="53">
+        <v>3</v>
+      </c>
+      <c r="G2" s="53">
+        <v>4</v>
+      </c>
+      <c r="H2" s="53">
+        <v>5</v>
+      </c>
+      <c r="I2" s="53">
+        <v>6</v>
+      </c>
+      <c r="J2" s="53">
+        <v>7</v>
+      </c>
+      <c r="K2" s="53">
+        <v>8</v>
+      </c>
+      <c r="L2" s="53">
+        <v>9</v>
+      </c>
+      <c r="M2" s="53">
+        <v>10</v>
+      </c>
+      <c r="N2" s="53">
+        <v>11</v>
+      </c>
+      <c r="O2" s="53">
+        <v>12</v>
+      </c>
+      <c r="P2" s="53">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="53">
+        <v>14</v>
+      </c>
+      <c r="R2" s="53">
+        <v>15</v>
+      </c>
+      <c r="S2" s="53">
+        <v>16</v>
+      </c>
+      <c r="T2" s="53">
+        <v>17</v>
+      </c>
+      <c r="U2" s="53">
+        <v>18</v>
+      </c>
+      <c r="V2" s="53">
+        <v>19</v>
+      </c>
+      <c r="W2" s="53">
+        <v>20</v>
+      </c>
+      <c r="X2" s="53">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="53">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="53">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="53">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="53">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="53">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="53">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="53">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="53">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="53">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="53">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="53">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="53">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="53">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="53">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="54">
+        <v>1</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54">
+        <v>2</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54">
+        <v>3</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54">
+        <v>4</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21" t="s">
+      <c r="B7" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="55">
+        <v>1</v>
+      </c>
+      <c r="E7" s="55">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55">
+        <v>1</v>
+      </c>
+      <c r="G7" s="55">
+        <v>1</v>
+      </c>
+      <c r="H7" s="55">
+        <v>1</v>
+      </c>
+      <c r="I7" s="55">
+        <v>1</v>
+      </c>
+      <c r="J7" s="55">
+        <v>1</v>
+      </c>
+      <c r="K7" s="55">
+        <v>1</v>
+      </c>
+      <c r="L7" s="55">
+        <v>1</v>
+      </c>
+      <c r="M7" s="55">
+        <v>1</v>
+      </c>
+      <c r="N7" s="55">
+        <v>1</v>
+      </c>
+      <c r="O7" s="55">
+        <v>1</v>
+      </c>
+      <c r="P7" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>1</v>
+      </c>
+      <c r="R7" s="55">
+        <v>1</v>
+      </c>
+      <c r="S7" s="55">
+        <v>1</v>
+      </c>
+      <c r="T7" s="55">
+        <v>1</v>
+      </c>
+      <c r="U7" s="55">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55">
+        <v>1</v>
+      </c>
+      <c r="W7" s="55">
+        <v>1</v>
+      </c>
+      <c r="X7" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="55">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55">
+        <v>1</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55">
+        <v>1</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55">
+        <v>1</v>
+      </c>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55">
+        <v>1</v>
+      </c>
+      <c r="J14" s="55">
+        <v>1</v>
+      </c>
+      <c r="K14" s="55">
+        <v>1</v>
+      </c>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55">
+        <v>1</v>
+      </c>
+      <c r="K15" s="55">
+        <v>1</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55">
+        <v>1</v>
+      </c>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55">
+        <v>1</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55">
+        <v>1</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1"/>
-    </row>
-    <row r="2" spans="1:49" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B22" s="63"/>
+      <c r="C22" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55">
+        <v>1</v>
+      </c>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55">
+        <v>1</v>
+      </c>
+      <c r="O24" s="55">
+        <v>1</v>
+      </c>
+      <c r="P24" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="55">
+        <v>1</v>
+      </c>
+      <c r="R24" s="55">
+        <v>1</v>
+      </c>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55">
+        <v>1</v>
+      </c>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55">
+        <v>1</v>
+      </c>
+      <c r="T26" s="55">
+        <v>1</v>
+      </c>
+      <c r="U26" s="55">
+        <v>1</v>
+      </c>
+      <c r="V26" s="55">
+        <v>1</v>
+      </c>
+      <c r="W26" s="55">
+        <v>1</v>
+      </c>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="4"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="4"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="4"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="4"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A39" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="4"/>
+    </row>
+    <row r="42" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2">
+        <f>SUM(D8:D41)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" ref="E42:AL42" si="0">SUM(E8:E41)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2">
-        <v>19</v>
-      </c>
-      <c r="W2" s="2">
-        <v>20</v>
-      </c>
-      <c r="X2" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>30</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>31</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>33</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>34</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>39</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>40</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>41</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>42</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>43</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>44</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
-        <v>2</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
-        <v>4</v>
-      </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16">
-        <v>7</v>
-      </c>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-    </row>
-    <row r="4" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
-        <v>1</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29">
-        <v>1</v>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
-        <v>1</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="1:49" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT40">
-        <v>1</v>
-      </c>
-      <c r="AU40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="8"/>
-      <c r="D44" s="2">
-        <f>SUM(D8:D43)</f>
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <f>SUM(E8:E43)</f>
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" ref="F44:AV44" si="0">SUM(F6:F43)</f>
-        <v>3</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="F42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I44" s="2">
+      <c r="G42" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N44" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O44" s="2">
+      <c r="L42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P44" s="2">
+      <c r="M42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="O42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R44" s="2">
+      <c r="T42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S44" s="2">
+      <c r="Y42" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U44" s="2">
+      <c r="AD42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V44" s="2">
+      <c r="AG42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="W44" s="2">
+      <c r="AH42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI42" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X44" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y44" s="2">
+      <c r="AK42" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AL42" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AB44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AI44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AO44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AS44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AT44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AU44" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AV44" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW44" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="AM42" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:AQ1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:AB3"/>
     <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AG1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:AV7 D31:AV42 D8:AV29">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="F6:AL7 D7:AL40">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21 C33 C37 D17:AV37">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="C21 C32 D37:AL39 D17:AL35">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:AV41">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21 C33 C37:C1048576 C2:C16">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="C21 C32 C2:C16 C36:C1048576">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F10">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:AV30">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D6:AL39">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:AV41">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AV41">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="38" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1138E15A-3014-EF49-A8B5-FEF04DD3E584}">
+  <dimension ref="A1:AL39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AL39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+    </row>
+    <row r="2" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1</v>
+      </c>
+      <c r="E2" s="47">
+        <v>2</v>
+      </c>
+      <c r="F2" s="47">
+        <v>3</v>
+      </c>
+      <c r="G2" s="47">
+        <v>4</v>
+      </c>
+      <c r="H2" s="47">
+        <v>5</v>
+      </c>
+      <c r="I2" s="47">
+        <v>6</v>
+      </c>
+      <c r="J2" s="47">
+        <v>7</v>
+      </c>
+      <c r="K2" s="47">
+        <v>8</v>
+      </c>
+      <c r="L2" s="47">
+        <v>9</v>
+      </c>
+      <c r="M2" s="47">
+        <v>10</v>
+      </c>
+      <c r="N2" s="47">
+        <v>11</v>
+      </c>
+      <c r="O2" s="47">
+        <v>12</v>
+      </c>
+      <c r="P2" s="47">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>14</v>
+      </c>
+      <c r="R2" s="47">
+        <v>15</v>
+      </c>
+      <c r="S2" s="47">
+        <v>16</v>
+      </c>
+      <c r="T2" s="47">
+        <v>17</v>
+      </c>
+      <c r="U2" s="47">
+        <v>18</v>
+      </c>
+      <c r="V2" s="47">
+        <v>19</v>
+      </c>
+      <c r="W2" s="47">
+        <v>20</v>
+      </c>
+      <c r="X2" s="47">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="47">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="47">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="47">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="47">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="47">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="47">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="47">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="47">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="47">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="47">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="47">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="47">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48">
+        <v>2</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48">
+        <v>3</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48">
+        <v>4</v>
+      </c>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+    </row>
+    <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+    </row>
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6:AL39 D7:E39">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21 C32 D37:AL39 D17:AL35">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21 C32 C2:C16 C36:C39">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:F10">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:AL39">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB9D54-9600-F648-875A-3FDB65D1B70C}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -3261,16 +5320,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3279,10 +5338,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -3292,12 +5351,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3306,7 +5365,7 @@
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3315,25 +5374,25 @@
       <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -3345,9 +5404,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3356,7 +5415,7 @@
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -3368,27 +5427,27 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -3397,12 +5456,12 @@
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3411,16 +5470,16 @@
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3429,43 +5488,43 @@
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3474,16 +5533,16 @@
       <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C31" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -3495,18 +5554,18 @@
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -3515,21 +5574,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3537,95 +5596,96 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B10">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BC1B55-2727-9344-A4C9-2FE1341840DE}">
   <dimension ref="A2:B9"/>
   <sheetViews>
@@ -3639,11 +5699,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>67</v>
+      <c r="A2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3656,7 +5716,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -3664,18 +5724,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3696,5 +5756,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Lofthus_gantt Chart_CA.xlsx
+++ b/Lofthus_gantt Chart_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanDMac/Documents/github/PjojectMeth_CA_JonathanConvento_Gantt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DAC1A6-062C-8A4C-9D25-ACB10E317E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12E8A6-2B33-0A4A-9076-5201F5585C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{74035F51-FD81-BA43-A70B-18B625AEE06F}"/>
   </bookViews>

--- a/Lofthus_gantt Chart_CA.xlsx
+++ b/Lofthus_gantt Chart_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanDMac/Documents/github/PjojectMeth_CA_JonathanConvento_Gantt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12E8A6-2B33-0A4A-9076-5201F5585C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A7DCC7-47E9-7D46-A086-DACDEF84FEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{74035F51-FD81-BA43-A70B-18B625AEE06F}"/>
   </bookViews>
@@ -579,52 +579,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,9 +595,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,12 +613,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,11 +629,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -734,57 +785,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2160,7 +2160,7 @@
   </sheetPr>
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C46" sqref="C46"/>
     </sheetView>
@@ -2171,2019 +2171,2019 @@
     <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="8" customWidth="1"/>
     <col min="4" max="38" width="4.1640625" customWidth="1"/>
-    <col min="39" max="39" width="10.83203125" style="41"/>
+    <col min="39" max="39" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="49" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
-        <v>1</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="B2" s="62"/>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
         <v>2</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="41">
         <v>4</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="41">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="41">
         <v>6</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="41">
         <v>7</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="41">
         <v>8</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="41">
         <v>9</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="41">
         <v>10</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="41">
         <v>11</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="41">
         <v>12</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="41">
         <v>13</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="41">
         <v>14</v>
       </c>
-      <c r="R2" s="53">
+      <c r="R2" s="41">
         <v>15</v>
       </c>
-      <c r="S2" s="53">
+      <c r="S2" s="41">
         <v>16</v>
       </c>
-      <c r="T2" s="53">
+      <c r="T2" s="41">
         <v>17</v>
       </c>
-      <c r="U2" s="53">
+      <c r="U2" s="41">
         <v>18</v>
       </c>
-      <c r="V2" s="53">
+      <c r="V2" s="41">
         <v>19</v>
       </c>
-      <c r="W2" s="53">
+      <c r="W2" s="41">
         <v>20</v>
       </c>
-      <c r="X2" s="53">
+      <c r="X2" s="41">
         <v>21</v>
       </c>
-      <c r="Y2" s="53">
+      <c r="Y2" s="41">
         <v>22</v>
       </c>
-      <c r="Z2" s="53">
+      <c r="Z2" s="41">
         <v>23</v>
       </c>
-      <c r="AA2" s="53">
+      <c r="AA2" s="41">
         <v>24</v>
       </c>
-      <c r="AB2" s="53">
+      <c r="AB2" s="41">
         <v>25</v>
       </c>
-      <c r="AC2" s="53">
+      <c r="AC2" s="41">
         <v>26</v>
       </c>
-      <c r="AD2" s="53">
+      <c r="AD2" s="41">
         <v>27</v>
       </c>
-      <c r="AE2" s="53">
+      <c r="AE2" s="41">
         <v>28</v>
       </c>
-      <c r="AF2" s="53">
+      <c r="AF2" s="41">
         <v>29</v>
       </c>
-      <c r="AG2" s="53">
+      <c r="AG2" s="41">
         <v>30</v>
       </c>
-      <c r="AH2" s="53">
+      <c r="AH2" s="41">
         <v>31</v>
       </c>
-      <c r="AI2" s="53">
+      <c r="AI2" s="41">
         <v>32</v>
       </c>
-      <c r="AJ2" s="53">
+      <c r="AJ2" s="41">
         <v>33</v>
       </c>
-      <c r="AK2" s="53">
+      <c r="AK2" s="41">
         <v>34</v>
       </c>
-      <c r="AL2" s="53">
+      <c r="AL2" s="41">
         <v>35</v>
       </c>
       <c r="AM2" s="4"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="61" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="54">
-        <v>1</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54">
+      <c r="D3" s="60">
+        <v>1</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60">
         <v>2</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60">
         <v>3</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60">
         <v>4</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60">
         <v>5</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60">
         <v>6</v>
       </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60">
         <v>7</v>
       </c>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
       <c r="AM3" s="4"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
       <c r="AM4" s="4"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="64"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
       <c r="AM5" s="4"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
       <c r="AM6" s="4"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="55">
-        <v>1</v>
-      </c>
-      <c r="E7" s="55">
-        <v>1</v>
-      </c>
-      <c r="F7" s="55">
-        <v>1</v>
-      </c>
-      <c r="G7" s="55">
-        <v>1</v>
-      </c>
-      <c r="H7" s="55">
-        <v>1</v>
-      </c>
-      <c r="I7" s="55">
-        <v>1</v>
-      </c>
-      <c r="J7" s="55">
-        <v>1</v>
-      </c>
-      <c r="K7" s="55">
-        <v>1</v>
-      </c>
-      <c r="L7" s="55">
-        <v>1</v>
-      </c>
-      <c r="M7" s="55">
-        <v>1</v>
-      </c>
-      <c r="N7" s="55">
-        <v>1</v>
-      </c>
-      <c r="O7" s="55">
-        <v>1</v>
-      </c>
-      <c r="P7" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="55">
-        <v>1</v>
-      </c>
-      <c r="R7" s="55">
-        <v>1</v>
-      </c>
-      <c r="S7" s="55">
-        <v>1</v>
-      </c>
-      <c r="T7" s="55">
-        <v>1</v>
-      </c>
-      <c r="U7" s="55">
-        <v>1</v>
-      </c>
-      <c r="V7" s="55">
-        <v>1</v>
-      </c>
-      <c r="W7" s="55">
-        <v>1</v>
-      </c>
-      <c r="X7" s="55">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="55">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="55">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="55">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1</v>
+      </c>
+      <c r="J7" s="42">
+        <v>1</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="42">
+        <v>1</v>
+      </c>
+      <c r="M7" s="42">
+        <v>1</v>
+      </c>
+      <c r="N7" s="42">
+        <v>1</v>
+      </c>
+      <c r="O7" s="42">
+        <v>1</v>
+      </c>
+      <c r="P7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>1</v>
+      </c>
+      <c r="R7" s="42">
+        <v>1</v>
+      </c>
+      <c r="S7" s="42">
+        <v>1</v>
+      </c>
+      <c r="T7" s="42">
+        <v>1</v>
+      </c>
+      <c r="U7" s="42">
+        <v>1</v>
+      </c>
+      <c r="V7" s="42">
+        <v>1</v>
+      </c>
+      <c r="W7" s="42">
+        <v>1</v>
+      </c>
+      <c r="X7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
       <c r="AM7" s="4"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="55">
-        <v>1</v>
-      </c>
-      <c r="E8" s="55">
-        <v>1</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
       <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55">
-        <v>1</v>
-      </c>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
       <c r="AM9" s="4"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55">
-        <v>1</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
       <c r="AM10" s="4"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55">
-        <v>1</v>
-      </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42">
+        <v>1</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
       <c r="AM11" s="4"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
-      <c r="B12" s="64"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
       <c r="AM12" s="4"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
       <c r="AM13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55">
-        <v>1</v>
-      </c>
-      <c r="J14" s="55">
-        <v>1</v>
-      </c>
-      <c r="K14" s="55">
-        <v>1</v>
-      </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="42">
+        <v>1</v>
+      </c>
+      <c r="K14" s="42">
+        <v>1</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
       <c r="AM14" s="4"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55">
-        <v>1</v>
-      </c>
-      <c r="K15" s="55">
-        <v>1</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
       <c r="AM15" s="4"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
-      <c r="B16" s="64"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
       <c r="AM16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
       <c r="AM17" s="4"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55">
-        <v>1</v>
-      </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
       <c r="AM18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55">
-        <v>1</v>
-      </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42">
+        <v>1</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
       <c r="AM19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55">
-        <v>1</v>
-      </c>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42">
+        <v>1</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
       <c r="AM20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
       <c r="AM21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
       <c r="AM22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55">
-        <v>1</v>
-      </c>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42">
+        <v>1</v>
+      </c>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
       <c r="AM23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55">
-        <v>1</v>
-      </c>
-      <c r="O24" s="55">
-        <v>1</v>
-      </c>
-      <c r="P24" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="55">
-        <v>1</v>
-      </c>
-      <c r="R24" s="55">
-        <v>1</v>
-      </c>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42">
+        <v>1</v>
+      </c>
+      <c r="O24" s="42">
+        <v>1</v>
+      </c>
+      <c r="P24" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="42">
+        <v>1</v>
+      </c>
+      <c r="R24" s="42">
+        <v>1</v>
+      </c>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
       <c r="AM24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55">
-        <v>1</v>
-      </c>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42">
+        <v>1</v>
+      </c>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
       <c r="AM25" s="4"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55">
-        <v>1</v>
-      </c>
-      <c r="T26" s="55">
-        <v>1</v>
-      </c>
-      <c r="U26" s="55">
-        <v>1</v>
-      </c>
-      <c r="V26" s="55">
-        <v>1</v>
-      </c>
-      <c r="W26" s="55">
-        <v>1</v>
-      </c>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42">
+        <v>1</v>
+      </c>
+      <c r="T26" s="42">
+        <v>1</v>
+      </c>
+      <c r="U26" s="42">
+        <v>1</v>
+      </c>
+      <c r="V26" s="42">
+        <v>1</v>
+      </c>
+      <c r="W26" s="42">
+        <v>1</v>
+      </c>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
       <c r="AM26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
       <c r="AM27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
       <c r="AM28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
       <c r="AM29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
       <c r="AM30" s="4"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
       <c r="AM31" s="4"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="64"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
       <c r="AM32" s="4"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
       <c r="AM33" s="4"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
       <c r="AM34" s="4"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
       <c r="AM35" s="4"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
-      <c r="B36" s="64"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="26"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
       <c r="AM36" s="4"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AM37" s="4"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="55"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="42"/>
       <c r="AM38" s="4"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58"/>
-      <c r="AJ39" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="58">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="45">
         <v>1</v>
       </c>
       <c r="AM39" s="4"/>
@@ -4331,10 +4331,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM42" s="42"/>
+      <c r="AM42" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AG1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="AH3:AL3"/>
     <mergeCell ref="D3:H3"/>
@@ -4343,13 +4350,6 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:AB3"/>
     <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F6:AL7 D7:AL40">
@@ -4400,170 +4400,170 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:38" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="43" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
     </row>
     <row r="2" spans="1:38" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47">
-        <v>1</v>
-      </c>
-      <c r="E2" s="47">
+      <c r="D2" s="40">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40">
         <v>2</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="40">
         <v>3</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="40">
         <v>4</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="40">
         <v>5</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="40">
         <v>6</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="40">
         <v>7</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="40">
         <v>8</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="40">
         <v>9</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="40">
         <v>10</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="40">
         <v>11</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="40">
         <v>12</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="40">
         <v>13</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="40">
         <v>14</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="40">
         <v>15</v>
       </c>
-      <c r="S2" s="47">
+      <c r="S2" s="40">
         <v>16</v>
       </c>
-      <c r="T2" s="47">
+      <c r="T2" s="40">
         <v>17</v>
       </c>
-      <c r="U2" s="47">
+      <c r="U2" s="40">
         <v>18</v>
       </c>
-      <c r="V2" s="47">
+      <c r="V2" s="40">
         <v>19</v>
       </c>
-      <c r="W2" s="47">
+      <c r="W2" s="40">
         <v>20</v>
       </c>
-      <c r="X2" s="47">
+      <c r="X2" s="40">
         <v>21</v>
       </c>
-      <c r="Y2" s="47">
+      <c r="Y2" s="40">
         <v>22</v>
       </c>
-      <c r="Z2" s="47">
+      <c r="Z2" s="40">
         <v>23</v>
       </c>
-      <c r="AA2" s="47">
+      <c r="AA2" s="40">
         <v>24</v>
       </c>
-      <c r="AB2" s="47">
+      <c r="AB2" s="40">
         <v>25</v>
       </c>
-      <c r="AC2" s="47">
+      <c r="AC2" s="40">
         <v>26</v>
       </c>
-      <c r="AD2" s="47">
+      <c r="AD2" s="40">
         <v>27</v>
       </c>
-      <c r="AE2" s="47">
+      <c r="AE2" s="40">
         <v>28</v>
       </c>
-      <c r="AF2" s="47">
+      <c r="AF2" s="40">
         <v>29</v>
       </c>
-      <c r="AG2" s="47">
+      <c r="AG2" s="40">
         <v>30</v>
       </c>
-      <c r="AH2" s="47">
+      <c r="AH2" s="40">
         <v>31</v>
       </c>
-      <c r="AI2" s="47">
+      <c r="AI2" s="40">
         <v>32</v>
       </c>
-      <c r="AJ2" s="47">
+      <c r="AJ2" s="40">
         <v>33</v>
       </c>
-      <c r="AK2" s="47">
+      <c r="AK2" s="40">
         <v>34</v>
       </c>
-      <c r="AL2" s="47">
+      <c r="AL2" s="40">
         <v>35</v>
       </c>
     </row>
@@ -4573,55 +4573,55 @@
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48">
+      <c r="D3" s="66">
+        <v>1</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66">
         <v>2</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66">
         <v>3</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48">
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66">
         <v>4</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48">
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66">
         <v>5</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48">
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66">
         <v>6</v>
       </c>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66">
         <v>7</v>
       </c>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -4645,11 +4645,11 @@
       <c r="C6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
@@ -4805,16 +4805,16 @@
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
@@ -4868,8 +4868,8 @@
       <c r="C17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
@@ -4926,26 +4926,26 @@
       <c r="C22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
     </row>
     <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -5137,8 +5137,8 @@
       <c r="C33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
@@ -5181,9 +5181,9 @@
       <c r="C37" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
@@ -5256,6 +5256,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AG1"/>
     <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="AH3:AL3"/>
     <mergeCell ref="A13:B13"/>
@@ -5265,38 +5271,32 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:AL39 D7:E39">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 C32 D37:AL39 D17:AL35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 C32 C2:C16 C36:C39">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AL39">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5320,16 +5320,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5596,87 +5596,87 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B10">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
